--- a/Code/Results/Cases/Case_3_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.77445558387054</v>
+        <v>10.43217854801802</v>
       </c>
       <c r="C2">
-        <v>7.923883882638585</v>
+        <v>11.0177613601999</v>
       </c>
       <c r="D2">
-        <v>5.266261789017802</v>
+        <v>5.058263248463851</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>16.56923526174317</v>
+        <v>23.68727751065412</v>
       </c>
       <c r="G2">
-        <v>19.98409999731577</v>
+        <v>27.68821453509152</v>
       </c>
       <c r="H2">
-        <v>8.459544806961624</v>
+        <v>14.11915767939937</v>
       </c>
       <c r="I2">
-        <v>13.95530918825115</v>
+        <v>22.63773957893154</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.89124639575628</v>
+        <v>8.015197667241976</v>
       </c>
       <c r="L2">
-        <v>7.180079211870548</v>
+        <v>11.14995757950668</v>
       </c>
       <c r="M2">
-        <v>9.83424290988239</v>
+        <v>13.88875234472146</v>
       </c>
       <c r="N2">
-        <v>12.35626620977858</v>
+        <v>19.0018222748998</v>
       </c>
       <c r="O2">
-        <v>13.47973398807315</v>
+        <v>21.33067805658498</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.93833867392107</v>
+        <v>10.17610375758471</v>
       </c>
       <c r="C3">
-        <v>7.924952534493923</v>
+        <v>11.0234324933295</v>
       </c>
       <c r="D3">
-        <v>5.050625955001538</v>
+        <v>4.976662779274602</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>16.33235696617687</v>
+        <v>23.72176962471077</v>
       </c>
       <c r="G3">
-        <v>19.74993788542045</v>
+        <v>27.74904239640311</v>
       </c>
       <c r="H3">
-        <v>8.513654838614858</v>
+        <v>14.15864578449306</v>
       </c>
       <c r="I3">
-        <v>14.07623153475589</v>
+        <v>22.71647769349634</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.35301930961726</v>
+        <v>7.76763645695434</v>
       </c>
       <c r="L3">
-        <v>7.07271321941841</v>
+        <v>11.15760807130841</v>
       </c>
       <c r="M3">
-        <v>9.487312815934375</v>
+        <v>13.84983886516642</v>
       </c>
       <c r="N3">
-        <v>12.52020085817078</v>
+        <v>19.05354217578556</v>
       </c>
       <c r="O3">
-        <v>13.50176579053914</v>
+        <v>21.39423429492501</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.39415753775587</v>
+        <v>10.01707808663902</v>
       </c>
       <c r="C4">
-        <v>7.926601151163967</v>
+        <v>11.02739715878341</v>
       </c>
       <c r="D4">
-        <v>4.912707733135862</v>
+        <v>4.925105955916618</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>16.19829723157284</v>
+        <v>23.7484025913675</v>
       </c>
       <c r="G4">
-        <v>19.62461381219985</v>
+        <v>27.7939331711197</v>
       </c>
       <c r="H4">
-        <v>8.551081551455306</v>
+        <v>14.18475552767399</v>
       </c>
       <c r="I4">
-        <v>14.15904033057163</v>
+        <v>22.76844576150417</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>10.00691329908481</v>
+        <v>7.610041657735128</v>
       </c>
       <c r="L4">
-        <v>7.009494308474669</v>
+        <v>11.16401047318503</v>
       </c>
       <c r="M4">
-        <v>9.271130305958945</v>
+        <v>13.82787463194401</v>
       </c>
       <c r="N4">
-        <v>12.62349522509073</v>
+        <v>19.08684618217409</v>
       </c>
       <c r="O4">
-        <v>13.5247877311811</v>
+        <v>21.43707274557335</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.16462985846854</v>
+        <v>9.951918128378665</v>
       </c>
       <c r="C5">
-        <v>7.927521760559214</v>
+        <v>11.02913461345195</v>
       </c>
       <c r="D5">
-        <v>4.855161305209</v>
+        <v>4.903743219085968</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>16.14653319814166</v>
+        <v>23.76062624234852</v>
       </c>
       <c r="G5">
-        <v>19.57811128845646</v>
+        <v>27.81411837815284</v>
       </c>
       <c r="H5">
-        <v>8.567362176257525</v>
+        <v>14.19586450972189</v>
       </c>
       <c r="I5">
-        <v>14.1948701771771</v>
+        <v>22.79053425402713</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.86202934338819</v>
+        <v>7.544472877578694</v>
       </c>
       <c r="L5">
-        <v>6.984431126737819</v>
+        <v>11.16704888374341</v>
       </c>
       <c r="M5">
-        <v>9.182372555789197</v>
+        <v>13.81941552763858</v>
       </c>
       <c r="N5">
-        <v>12.66626326238488</v>
+        <v>19.10080808498684</v>
       </c>
       <c r="O5">
-        <v>13.53648041145075</v>
+        <v>21.45548833421273</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.12604706533684</v>
+        <v>9.941079761868583</v>
       </c>
       <c r="C6">
-        <v>7.927689630822432</v>
+        <v>11.02943048810856</v>
       </c>
       <c r="D6">
-        <v>4.845526014444841</v>
+        <v>4.90017501759871</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>16.13811085407535</v>
+        <v>23.76273870335944</v>
       </c>
       <c r="G6">
-        <v>19.57066304908857</v>
+        <v>27.81758422996204</v>
       </c>
       <c r="H6">
-        <v>8.570126910720187</v>
+        <v>14.19773748778642</v>
       </c>
       <c r="I6">
-        <v>14.20094365965464</v>
+        <v>22.79425706357963</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.837742288660502</v>
+        <v>7.533505653301252</v>
       </c>
       <c r="L6">
-        <v>6.980312145899413</v>
+        <v>11.16757935988889</v>
       </c>
       <c r="M6">
-        <v>9.167598595224806</v>
+        <v>13.81804076669274</v>
       </c>
       <c r="N6">
-        <v>12.67340594420086</v>
+        <v>19.10315004933569</v>
       </c>
       <c r="O6">
-        <v>13.53855931602718</v>
+        <v>21.45860410406119</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.39109353518156</v>
+        <v>10.01620062738</v>
       </c>
       <c r="C7">
-        <v>7.92661256050441</v>
+        <v>11.02742009682203</v>
       </c>
       <c r="D7">
-        <v>4.911937019846495</v>
+        <v>4.924819262423945</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>16.19758752024508</v>
+        <v>23.74856189651201</v>
       </c>
       <c r="G7">
-        <v>19.62396827435199</v>
+        <v>27.79419774251675</v>
       </c>
       <c r="H7">
-        <v>8.55129698763333</v>
+        <v>14.18490344764658</v>
       </c>
       <c r="I7">
-        <v>14.15951519205886</v>
+        <v>22.76873996546959</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>10.00497477420091</v>
+        <v>7.609162749524967</v>
       </c>
       <c r="L7">
-        <v>7.009153443404953</v>
+        <v>11.16404971092572</v>
       </c>
       <c r="M7">
-        <v>9.269935780541974</v>
+        <v>13.82775855117577</v>
       </c>
       <c r="N7">
-        <v>12.62406926284545</v>
+        <v>19.08703289577613</v>
       </c>
       <c r="O7">
-        <v>13.52493616646944</v>
+        <v>21.43731722431646</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.49253996889205</v>
+        <v>10.34431240906105</v>
       </c>
       <c r="C8">
-        <v>7.924045887910385</v>
+        <v>11.01961689554282</v>
       </c>
       <c r="D8">
-        <v>5.193079833337163</v>
+        <v>5.030436576043609</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>16.48520194658741</v>
+        <v>23.69803773541423</v>
       </c>
       <c r="G8">
-        <v>19.899492999701</v>
+        <v>27.70761995169143</v>
       </c>
       <c r="H8">
-        <v>8.477312496210995</v>
+        <v>14.13238654588406</v>
       </c>
       <c r="I8">
-        <v>13.99518407443223</v>
+        <v>22.66413672091924</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.70895764922885</v>
+        <v>7.931032295829155</v>
       </c>
       <c r="L8">
-        <v>7.142510075490606</v>
+        <v>11.15224202390933</v>
       </c>
       <c r="M8">
-        <v>9.715355584024298</v>
+        <v>13.8749386637532</v>
       </c>
       <c r="N8">
-        <v>12.4122503990491</v>
+        <v>19.01933468879401</v>
       </c>
       <c r="O8">
-        <v>13.48531418085978</v>
+        <v>21.35180013398175</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.40931281565951</v>
+        <v>10.96953659966854</v>
       </c>
       <c r="C9">
-        <v>7.926926009459118</v>
+        <v>11.00812308382576</v>
       </c>
       <c r="D9">
-        <v>5.699020214430893</v>
+        <v>5.225488555247556</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>17.13893242328946</v>
+        <v>23.64227264086048</v>
       </c>
       <c r="G9">
-        <v>20.58857400582296</v>
+        <v>27.59786913675904</v>
       </c>
       <c r="H9">
-        <v>8.366883945730514</v>
+        <v>14.04417399720477</v>
       </c>
       <c r="I9">
-        <v>13.74409001279148</v>
+        <v>22.48774579749482</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.96240343476288</v>
+        <v>8.515570880436316</v>
       </c>
       <c r="L9">
-        <v>7.424572745019592</v>
+        <v>11.14258331049018</v>
       </c>
       <c r="M9">
-        <v>10.55840214095683</v>
+        <v>13.98246156083399</v>
       </c>
       <c r="N9">
-        <v>12.01726450483526</v>
+        <v>18.89881109425016</v>
       </c>
       <c r="O9">
-        <v>13.4863363828495</v>
+        <v>21.21439704215662</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.6712190581096</v>
+        <v>11.41285338091045</v>
       </c>
       <c r="C10">
-        <v>7.933925656972593</v>
+        <v>11.00197264171389</v>
       </c>
       <c r="D10">
-        <v>6.041312140275784</v>
+        <v>5.360773205853873</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>17.67256631990434</v>
+        <v>23.62772410276612</v>
       </c>
       <c r="G10">
-        <v>21.1876364195958</v>
+        <v>27.55404133836499</v>
       </c>
       <c r="H10">
-        <v>8.308756536180706</v>
+        <v>13.98834794199663</v>
       </c>
       <c r="I10">
-        <v>13.60765734509128</v>
+        <v>22.37565870807695</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.80279756682215</v>
+        <v>8.9139089754068</v>
       </c>
       <c r="L10">
-        <v>7.643054595970064</v>
+        <v>11.14366650412829</v>
       </c>
       <c r="M10">
-        <v>11.15301601775453</v>
+        <v>14.07017796229866</v>
       </c>
       <c r="N10">
-        <v>11.73871550044347</v>
+        <v>18.8176506567581</v>
       </c>
       <c r="O10">
-        <v>13.53964639673784</v>
+        <v>21.13195230274174</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.21395881405339</v>
+        <v>11.61011439117402</v>
       </c>
       <c r="C11">
-        <v>7.938184609126095</v>
+        <v>10.99966691788597</v>
       </c>
       <c r="D11">
-        <v>6.190366427522901</v>
+        <v>5.420446682212037</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>17.92649230726578</v>
+        <v>23.62683615450598</v>
       </c>
       <c r="G11">
-        <v>21.48045737105916</v>
+        <v>27.54212545672234</v>
       </c>
       <c r="H11">
-        <v>8.287738253924697</v>
+        <v>13.96489726648852</v>
       </c>
       <c r="I11">
-        <v>13.55710095997864</v>
+        <v>22.32846690572872</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.16722365357874</v>
+        <v>9.087895482982928</v>
       </c>
       <c r="L11">
-        <v>7.744609202322099</v>
+        <v>11.14592275299982</v>
       </c>
       <c r="M11">
-        <v>11.4170677699925</v>
+        <v>14.11187722638178</v>
       </c>
       <c r="N11">
-        <v>11.61434781236229</v>
+        <v>18.78231829884551</v>
       </c>
       <c r="O11">
-        <v>13.57626217783399</v>
+        <v>21.09847110986169</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.41501536231883</v>
+        <v>11.68410845526228</v>
       </c>
       <c r="C12">
-        <v>7.939953130533328</v>
+        <v>10.99886407581584</v>
       </c>
       <c r="D12">
-        <v>6.24583460992992</v>
+        <v>5.442764715882944</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>18.02421219266926</v>
+        <v>23.62732237775264</v>
       </c>
       <c r="G12">
-        <v>21.59425358872136</v>
+        <v>27.53876789789021</v>
       </c>
       <c r="H12">
-        <v>8.280596489078739</v>
+        <v>13.95629643609023</v>
       </c>
       <c r="I12">
-        <v>13.53970533665642</v>
+        <v>22.31114256588278</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.30262983849659</v>
+        <v>9.152708077337529</v>
       </c>
       <c r="L12">
-        <v>7.783353149921232</v>
+        <v>11.14702942862953</v>
       </c>
       <c r="M12">
-        <v>11.51605676571119</v>
+        <v>14.12791710922651</v>
       </c>
       <c r="N12">
-        <v>11.56757553363702</v>
+        <v>18.7691661215663</v>
       </c>
       <c r="O12">
-        <v>13.59198103968371</v>
+        <v>21.08637169456179</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.37191234935551</v>
+        <v>11.66820490400738</v>
       </c>
       <c r="C13">
-        <v>7.939565300779619</v>
+        <v>10.9990338639838</v>
       </c>
       <c r="D13">
-        <v>6.233932181476367</v>
+        <v>5.437970696102636</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>18.0030976336092</v>
+        <v>23.62718111172275</v>
       </c>
       <c r="G13">
-        <v>21.56961629599255</v>
+        <v>27.53943964053416</v>
       </c>
       <c r="H13">
-        <v>8.282097631041216</v>
+        <v>13.95813635482759</v>
       </c>
       <c r="I13">
-        <v>13.54337246909318</v>
+        <v>22.31484937898361</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.27358336271848</v>
+        <v>9.138797718398314</v>
       </c>
       <c r="L13">
-        <v>7.774996540842445</v>
+        <v>11.14677988801595</v>
       </c>
       <c r="M13">
-        <v>11.49478335149741</v>
+        <v>14.12445169468887</v>
       </c>
       <c r="N13">
-        <v>11.57763464447795</v>
+        <v>18.77198857828464</v>
       </c>
       <c r="O13">
-        <v>13.58851210301992</v>
+        <v>21.08895175128842</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.23058918284585</v>
+        <v>11.61621642961155</v>
       </c>
       <c r="C14">
-        <v>7.938326977821691</v>
+        <v>10.99959946173897</v>
       </c>
       <c r="D14">
-        <v>6.194949469877437</v>
+        <v>5.422288449456607</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>17.93450069846327</v>
+        <v>23.62685968364789</v>
       </c>
       <c r="G14">
-        <v>21.48976119154897</v>
+        <v>27.54182608172902</v>
       </c>
       <c r="H14">
-        <v>8.287134095373171</v>
+        <v>13.96418407214309</v>
       </c>
       <c r="I14">
-        <v>13.55563420644835</v>
+        <v>22.32703067493373</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.17841569972897</v>
+        <v>9.093249326363704</v>
       </c>
       <c r="L14">
-        <v>7.747791065477134</v>
+        <v>11.14600875167008</v>
       </c>
       <c r="M14">
-        <v>11.42523212328774</v>
+        <v>14.11319189443213</v>
       </c>
       <c r="N14">
-        <v>11.61049343749487</v>
+        <v>18.78123170871906</v>
       </c>
       <c r="O14">
-        <v>13.57751781289977</v>
+        <v>21.09746407253525</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.14344395502625</v>
+        <v>11.58427825150551</v>
       </c>
       <c r="C15">
-        <v>7.937588789433884</v>
+        <v>10.99995504554296</v>
       </c>
       <c r="D15">
-        <v>6.170943919379057</v>
+        <v>5.412645986792483</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>17.89268540687624</v>
+        <v>23.62676985441563</v>
       </c>
       <c r="G15">
-        <v>21.44122634753596</v>
+        <v>27.54343824806222</v>
       </c>
       <c r="H15">
-        <v>8.290326659513701</v>
+        <v>13.96792485674637</v>
       </c>
       <c r="I15">
-        <v>13.56337550372699</v>
+        <v>22.33456320242037</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.1197843602645</v>
+        <v>9.065209028483068</v>
       </c>
       <c r="L15">
-        <v>7.731163653222955</v>
+        <v>11.14556922218484</v>
       </c>
       <c r="M15">
-        <v>11.38249748473434</v>
+        <v>14.10632713004261</v>
       </c>
       <c r="N15">
-        <v>11.63066203845741</v>
+        <v>18.78692298257917</v>
       </c>
       <c r="O15">
-        <v>13.57102703720644</v>
+        <v>21.10275355989312</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.63512268995553</v>
+        <v>11.39986706313092</v>
       </c>
       <c r="C16">
-        <v>7.933669051949852</v>
+        <v>11.00213318803152</v>
       </c>
       <c r="D16">
-        <v>6.031435507972653</v>
+        <v>5.356834910562728</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>17.65619286989181</v>
+        <v>23.62789732138603</v>
       </c>
       <c r="G16">
-        <v>21.16890796840472</v>
+        <v>27.5549816080526</v>
       </c>
       <c r="H16">
-        <v>8.310242444720378</v>
+        <v>13.98991961421199</v>
       </c>
       <c r="I16">
-        <v>13.61120085279648</v>
+        <v>22.37881922423782</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.7786195803892</v>
+        <v>8.902390259306127</v>
       </c>
       <c r="L16">
-        <v>7.636459281950776</v>
+        <v>11.14355443033537</v>
       </c>
       <c r="M16">
-        <v>11.13562330647326</v>
+        <v>14.06748820152447</v>
       </c>
       <c r="N16">
-        <v>11.74688921649191</v>
+        <v>18.81999158355239</v>
       </c>
       <c r="O16">
-        <v>13.53750875920537</v>
+        <v>21.13422139301783</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.31528971454112</v>
+        <v>11.28555605037154</v>
       </c>
       <c r="C17">
-        <v>7.931540519626229</v>
+        <v>11.00359511374657</v>
       </c>
       <c r="D17">
-        <v>5.944132659014032</v>
+        <v>5.322110562718471</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>17.51394431560195</v>
+        <v>23.63005572861346</v>
       </c>
       <c r="G17">
-        <v>21.0070472195226</v>
+        <v>27.56411874199881</v>
       </c>
       <c r="H17">
-        <v>8.323875569496654</v>
+        <v>14.00391064466341</v>
       </c>
       <c r="I17">
-        <v>13.64355335184346</v>
+        <v>22.40694150707924</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.56472863882385</v>
+        <v>8.800631514196047</v>
       </c>
       <c r="L17">
-        <v>7.578898731454496</v>
+        <v>11.1427692063166</v>
       </c>
       <c r="M17">
-        <v>10.98246713420606</v>
+        <v>14.04411558163724</v>
       </c>
       <c r="N17">
-        <v>11.81878163383166</v>
+        <v>18.84068414649835</v>
       </c>
       <c r="O17">
-        <v>13.52016748642562</v>
+        <v>21.15455683454886</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.12838124266324</v>
+        <v>11.21939652699356</v>
       </c>
       <c r="C18">
-        <v>7.930417330564316</v>
+        <v>11.00448232666789</v>
       </c>
       <c r="D18">
-        <v>5.893292722336048</v>
+        <v>5.301962775399431</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>17.43318119029512</v>
+        <v>23.6318366732996</v>
       </c>
       <c r="G18">
-        <v>20.91586159412545</v>
+        <v>27.57012918824928</v>
       </c>
       <c r="H18">
-        <v>8.332225205474115</v>
+        <v>14.01214099064235</v>
       </c>
       <c r="I18">
-        <v>13.66323892268268</v>
+        <v>22.42347409964668</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.44002276953182</v>
+        <v>8.741424813427702</v>
       </c>
       <c r="L18">
-        <v>7.545996729948552</v>
+        <v>11.14248364123992</v>
       </c>
       <c r="M18">
-        <v>10.89377328969254</v>
+        <v>14.0308419406717</v>
       </c>
       <c r="N18">
-        <v>11.86035391672923</v>
+        <v>18.85273547955846</v>
       </c>
       <c r="O18">
-        <v>13.51135270385744</v>
+        <v>21.16663190388078</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.0645897140768</v>
+        <v>11.19692773803556</v>
       </c>
       <c r="C19">
-        <v>7.930054364728805</v>
+        <v>11.00479069742082</v>
       </c>
       <c r="D19">
-        <v>5.875972355318515</v>
+        <v>5.295111305539877</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>17.40601856088199</v>
+        <v>23.63253236532818</v>
       </c>
       <c r="G19">
-        <v>20.8853162521543</v>
+        <v>27.5722938448038</v>
       </c>
       <c r="H19">
-        <v>8.33513841949466</v>
+        <v>14.01495909504075</v>
       </c>
       <c r="I19">
-        <v>13.67008633136141</v>
+        <v>22.42913313088276</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.39751157368354</v>
+        <v>8.721263143962693</v>
       </c>
       <c r="L19">
-        <v>7.534892680622569</v>
+        <v>11.14241551506084</v>
       </c>
       <c r="M19">
-        <v>10.86364208102868</v>
+        <v>14.02637712653081</v>
       </c>
       <c r="N19">
-        <v>11.87446807423081</v>
+        <v>18.85684156205523</v>
       </c>
       <c r="O19">
-        <v>13.5085649814547</v>
+        <v>21.17078532986238</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.34964144370193</v>
+        <v>11.29776770591173</v>
       </c>
       <c r="C20">
-        <v>7.931756635086066</v>
+        <v>11.00343469551221</v>
       </c>
       <c r="D20">
-        <v>5.953491092444088</v>
+        <v>5.325825244715102</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>17.52897808646008</v>
+        <v>23.6297701370367</v>
       </c>
       <c r="G20">
-        <v>21.02407967600235</v>
+        <v>27.56306792646977</v>
       </c>
       <c r="H20">
-        <v>8.322371434376345</v>
+        <v>14.00240232971439</v>
       </c>
       <c r="I20">
-        <v>13.63999720928703</v>
+        <v>22.40391085157112</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.58767191744441</v>
+        <v>8.811534312555029</v>
       </c>
       <c r="L20">
-        <v>7.58500507816814</v>
+        <v>11.14283561567335</v>
       </c>
       <c r="M20">
-        <v>10.99883380391989</v>
+        <v>14.04658614127294</v>
       </c>
       <c r="N20">
-        <v>11.81110572320588</v>
+        <v>18.83846591999863</v>
       </c>
       <c r="O20">
-        <v>13.52189294325166</v>
+        <v>21.15235289725275</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.27222017749936</v>
+        <v>11.63150635761084</v>
       </c>
       <c r="C21">
-        <v>7.93868646631485</v>
+        <v>10.99943142830746</v>
       </c>
       <c r="D21">
-        <v>6.206426238809334</v>
+        <v>5.426902357550204</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>17.95460719933284</v>
+        <v>23.62693178828192</v>
       </c>
       <c r="G21">
-        <v>21.5131376765361</v>
+        <v>27.54109378136916</v>
       </c>
       <c r="H21">
-        <v>8.285632274514473</v>
+        <v>13.96240012918649</v>
       </c>
       <c r="I21">
-        <v>13.55198440074111</v>
+        <v>22.32343790893048</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.20643930282787</v>
+        <v>9.106657347932522</v>
       </c>
       <c r="L21">
-        <v>7.755774361220837</v>
+        <v>11.14622841725183</v>
       </c>
       <c r="M21">
-        <v>11.44568873817039</v>
+        <v>14.1164924793126</v>
       </c>
       <c r="N21">
-        <v>11.60083336157388</v>
+        <v>18.77851061244392</v>
       </c>
       <c r="O21">
-        <v>13.58069621686882</v>
+        <v>21.09494807377632</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.8491574419912</v>
+        <v>11.8454892963015</v>
       </c>
       <c r="C22">
-        <v>7.944123959223012</v>
+        <v>10.99722451346707</v>
       </c>
       <c r="D22">
-        <v>6.36604228304472</v>
+        <v>5.491331384454536</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>18.24187319280362</v>
+        <v>23.62986963747202</v>
       </c>
       <c r="G22">
-        <v>21.84972412732119</v>
+        <v>27.53346303316914</v>
       </c>
       <c r="H22">
-        <v>8.266403911634757</v>
+        <v>13.93788500811423</v>
       </c>
       <c r="I22">
-        <v>13.50470368012245</v>
+        <v>22.27402776509649</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.59571361575834</v>
+        <v>9.293273944608551</v>
       </c>
       <c r="L22">
-        <v>7.869046629459217</v>
+        <v>11.1499156130502</v>
       </c>
       <c r="M22">
-        <v>11.73186819866257</v>
+        <v>14.16362886004233</v>
       </c>
       <c r="N22">
-        <v>11.46528431523146</v>
+        <v>18.74065150965567</v>
       </c>
       <c r="O22">
-        <v>13.62996306572382</v>
+        <v>21.06080688801846</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.54360426773334</v>
+        <v>11.73168279164441</v>
       </c>
       <c r="C23">
-        <v>7.941138323382072</v>
+        <v>10.99836508103245</v>
       </c>
       <c r="D23">
-        <v>6.281378139383681</v>
+        <v>5.457096881377648</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>18.08773667842875</v>
+        <v>23.62786375623709</v>
       </c>
       <c r="G23">
-        <v>21.66853510807856</v>
+        <v>27.53691965864957</v>
       </c>
       <c r="H23">
-        <v>8.276216099227414</v>
+        <v>13.95082024898229</v>
       </c>
       <c r="I23">
-        <v>13.5289691751789</v>
+        <v>22.30010754262559</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.38934052024155</v>
+        <v>9.194256511756038</v>
       </c>
       <c r="L23">
-        <v>7.808446543395712</v>
+        <v>11.14781366431538</v>
       </c>
       <c r="M23">
-        <v>11.5796877637244</v>
+        <v>14.13834182297911</v>
       </c>
       <c r="N23">
-        <v>11.53746256729673</v>
+        <v>18.76073667542697</v>
       </c>
       <c r="O23">
-        <v>13.60265269934474</v>
+        <v>21.07871956781268</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.33412047429875</v>
+        <v>11.29224818336555</v>
       </c>
       <c r="C24">
-        <v>7.931658616239419</v>
+        <v>11.00350707499694</v>
       </c>
       <c r="D24">
-        <v>5.949262162778076</v>
+        <v>5.324146410239332</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>17.52217814623209</v>
+        <v>23.6298975706892</v>
       </c>
       <c r="G24">
-        <v>21.01637347639397</v>
+        <v>27.5635406410916</v>
       </c>
       <c r="H24">
-        <v>8.323049862627961</v>
+        <v>14.00308365727859</v>
       </c>
       <c r="I24">
-        <v>13.64160156675044</v>
+        <v>22.40527987487447</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.5773046700175</v>
+        <v>8.80660734836111</v>
       </c>
       <c r="L24">
-        <v>7.582243804162235</v>
+        <v>11.14280507524171</v>
       </c>
       <c r="M24">
-        <v>10.9914364273858</v>
+        <v>14.04546869101535</v>
       </c>
       <c r="N24">
-        <v>11.81457525261591</v>
+        <v>18.83946829761584</v>
       </c>
       <c r="O24">
-        <v>13.52110927254693</v>
+        <v>21.15334810137309</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.91661925167541</v>
+        <v>10.80287690250524</v>
       </c>
       <c r="C25">
-        <v>7.925293738749587</v>
+        <v>11.01082760512024</v>
       </c>
       <c r="D25">
-        <v>5.567209108226669</v>
+        <v>5.174084243662575</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>16.95258793068949</v>
+        <v>23.65271780051714</v>
       </c>
       <c r="G25">
-        <v>20.38595495855867</v>
+        <v>27.62110855831821</v>
       </c>
       <c r="H25">
-        <v>8.392858773442486</v>
+        <v>14.06645859317687</v>
       </c>
       <c r="I25">
-        <v>13.80393177833632</v>
+        <v>22.53238900892423</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.63727904809223</v>
+        <v>8.362728240266353</v>
       </c>
       <c r="L25">
-        <v>7.346196286357413</v>
+        <v>11.14375588864181</v>
       </c>
       <c r="M25">
-        <v>10.33428222972598</v>
+        <v>13.95181015152189</v>
       </c>
       <c r="N25">
-        <v>12.12201511274137</v>
+        <v>18.93011352681744</v>
       </c>
       <c r="O25">
-        <v>13.47715621240442</v>
+        <v>21.24832090184001</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_69/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_69/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.43217854801802</v>
+        <v>12.77445558387053</v>
       </c>
       <c r="C2">
-        <v>11.0177613601999</v>
+        <v>7.923883882638705</v>
       </c>
       <c r="D2">
-        <v>5.058263248463851</v>
+        <v>5.266261789017944</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>23.68727751065412</v>
+        <v>16.56923526174301</v>
       </c>
       <c r="G2">
-        <v>27.68821453509152</v>
+        <v>19.98409999731557</v>
       </c>
       <c r="H2">
-        <v>14.11915767939937</v>
+        <v>8.459544806961617</v>
       </c>
       <c r="I2">
-        <v>22.63773957893154</v>
+        <v>13.95530918825115</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.015197667241976</v>
+        <v>10.89124639575629</v>
       </c>
       <c r="L2">
-        <v>11.14995757950668</v>
+        <v>7.180079211870593</v>
       </c>
       <c r="M2">
-        <v>13.88875234472146</v>
+        <v>9.834242909882402</v>
       </c>
       <c r="N2">
-        <v>19.0018222748998</v>
+        <v>12.35626620977858</v>
       </c>
       <c r="O2">
-        <v>21.33067805658498</v>
+        <v>13.47973398807311</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.17610375758471</v>
+        <v>11.93833867392117</v>
       </c>
       <c r="C3">
-        <v>11.0234324933295</v>
+        <v>7.924952534493913</v>
       </c>
       <c r="D3">
-        <v>4.976662779274602</v>
+        <v>5.050625955001651</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>23.72176962471077</v>
+        <v>16.33235696617664</v>
       </c>
       <c r="G3">
-        <v>27.74904239640311</v>
+        <v>19.74993788542018</v>
       </c>
       <c r="H3">
-        <v>14.15864578449306</v>
+        <v>8.513654838614675</v>
       </c>
       <c r="I3">
-        <v>22.71647769349634</v>
+        <v>14.07623153475572</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.76763645695434</v>
+        <v>10.35301930961733</v>
       </c>
       <c r="L3">
-        <v>11.15760807130841</v>
+        <v>7.072713219418454</v>
       </c>
       <c r="M3">
-        <v>13.84983886516642</v>
+        <v>9.487312815934356</v>
       </c>
       <c r="N3">
-        <v>19.05354217578556</v>
+        <v>12.52020085817068</v>
       </c>
       <c r="O3">
-        <v>21.39423429492501</v>
+        <v>13.50176579053898</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.01707808663902</v>
+        <v>11.39415753775593</v>
       </c>
       <c r="C4">
-        <v>11.02739715878341</v>
+        <v>7.926601151163959</v>
       </c>
       <c r="D4">
-        <v>4.925105955916618</v>
+        <v>4.912707733135916</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>23.7484025913675</v>
+        <v>16.1982972315726</v>
       </c>
       <c r="G4">
-        <v>27.7939331711197</v>
+        <v>19.62461381219955</v>
       </c>
       <c r="H4">
-        <v>14.18475552767399</v>
+        <v>8.551081551455248</v>
       </c>
       <c r="I4">
-        <v>22.76844576150417</v>
+        <v>14.15904033057152</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.610041657735128</v>
+        <v>10.00691329908484</v>
       </c>
       <c r="L4">
-        <v>11.16401047318503</v>
+        <v>7.00949430847467</v>
       </c>
       <c r="M4">
-        <v>13.82787463194401</v>
+        <v>9.271130305958936</v>
       </c>
       <c r="N4">
-        <v>19.08684618217409</v>
+        <v>12.62349522509063</v>
       </c>
       <c r="O4">
-        <v>21.43707274557335</v>
+        <v>13.52478773118095</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.951918128378665</v>
+        <v>11.16462985846852</v>
       </c>
       <c r="C5">
-        <v>11.02913461345195</v>
+        <v>7.927521760559346</v>
       </c>
       <c r="D5">
-        <v>4.903743219085968</v>
+        <v>4.855161305208933</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>23.76062624234852</v>
+        <v>16.1465331981417</v>
       </c>
       <c r="G5">
-        <v>27.81411837815284</v>
+        <v>19.57811128845641</v>
       </c>
       <c r="H5">
-        <v>14.19586450972189</v>
+        <v>8.567362176257582</v>
       </c>
       <c r="I5">
-        <v>22.79053425402713</v>
+        <v>14.19487017717714</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.544472877578694</v>
+        <v>9.862029343388189</v>
       </c>
       <c r="L5">
-        <v>11.16704888374341</v>
+        <v>6.984431126737769</v>
       </c>
       <c r="M5">
-        <v>13.81941552763858</v>
+        <v>9.182372555789195</v>
       </c>
       <c r="N5">
-        <v>19.10080808498684</v>
+        <v>12.66626326238488</v>
       </c>
       <c r="O5">
-        <v>21.45548833421273</v>
+        <v>13.53648041145075</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.941079761868583</v>
+        <v>11.12604706533694</v>
       </c>
       <c r="C6">
-        <v>11.02943048810856</v>
+        <v>7.927689630822288</v>
       </c>
       <c r="D6">
-        <v>4.90017501759871</v>
+        <v>4.845526014444841</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.76273870335944</v>
+        <v>16.13811085407519</v>
       </c>
       <c r="G6">
-        <v>27.81758422996204</v>
+        <v>19.57066304908843</v>
       </c>
       <c r="H6">
-        <v>14.19773748778642</v>
+        <v>8.57012691072007</v>
       </c>
       <c r="I6">
-        <v>22.79425706357963</v>
+        <v>14.20094365965444</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.533505653301252</v>
+        <v>9.837742288660525</v>
       </c>
       <c r="L6">
-        <v>11.16757935988889</v>
+        <v>6.98031214589945</v>
       </c>
       <c r="M6">
-        <v>13.81804076669274</v>
+        <v>9.167598595224797</v>
       </c>
       <c r="N6">
-        <v>19.10315004933569</v>
+        <v>12.67340594420076</v>
       </c>
       <c r="O6">
-        <v>21.45860410406119</v>
+        <v>13.53855931602703</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.01620062738</v>
+        <v>11.39109353518149</v>
       </c>
       <c r="C7">
-        <v>11.02742009682203</v>
+        <v>7.926612560504536</v>
       </c>
       <c r="D7">
-        <v>4.924819262423945</v>
+        <v>4.911937019846501</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>23.74856189651201</v>
+        <v>16.19758752024507</v>
       </c>
       <c r="G7">
-        <v>27.79419774251675</v>
+        <v>19.62396827435199</v>
       </c>
       <c r="H7">
-        <v>14.18490344764658</v>
+        <v>8.551296987633322</v>
       </c>
       <c r="I7">
-        <v>22.76873996546959</v>
+        <v>14.15951519205891</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.609162749524967</v>
+        <v>10.00497477420088</v>
       </c>
       <c r="L7">
-        <v>11.16404971092572</v>
+        <v>7.009153443404865</v>
       </c>
       <c r="M7">
-        <v>13.82775855117577</v>
+        <v>9.269935780541982</v>
       </c>
       <c r="N7">
-        <v>19.08703289577613</v>
+        <v>12.62406926284542</v>
       </c>
       <c r="O7">
-        <v>21.43731722431646</v>
+        <v>13.52493616646943</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.34431240906105</v>
+        <v>12.4925399688921</v>
       </c>
       <c r="C8">
-        <v>11.01961689554282</v>
+        <v>7.92404588791038</v>
       </c>
       <c r="D8">
-        <v>5.030436576043609</v>
+        <v>5.193079833336986</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>23.69803773541423</v>
+        <v>16.48520194658723</v>
       </c>
       <c r="G8">
-        <v>27.70761995169143</v>
+        <v>19.89949299970074</v>
       </c>
       <c r="H8">
-        <v>14.13238654588406</v>
+        <v>8.477312496210873</v>
       </c>
       <c r="I8">
-        <v>22.66413672091924</v>
+        <v>13.99518407443199</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>7.931032295829155</v>
+        <v>10.70895764922892</v>
       </c>
       <c r="L8">
-        <v>11.15224202390933</v>
+        <v>7.142510075490657</v>
       </c>
       <c r="M8">
-        <v>13.8749386637532</v>
+        <v>9.715355584024287</v>
       </c>
       <c r="N8">
-        <v>19.01933468879401</v>
+        <v>12.41225039904897</v>
       </c>
       <c r="O8">
-        <v>21.35180013398175</v>
+        <v>13.48531418085956</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>10.96953659966854</v>
+        <v>14.4093128156596</v>
       </c>
       <c r="C9">
-        <v>11.00812308382576</v>
+        <v>7.926926009458852</v>
       </c>
       <c r="D9">
-        <v>5.225488555247556</v>
+        <v>5.699020214430886</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>23.64227264086048</v>
+        <v>17.13893242328933</v>
       </c>
       <c r="G9">
-        <v>27.59786913675904</v>
+        <v>20.58857400582288</v>
       </c>
       <c r="H9">
-        <v>14.04417399720477</v>
+        <v>8.366883945730342</v>
       </c>
       <c r="I9">
-        <v>22.48774579749482</v>
+        <v>13.74409001279128</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.515570880436316</v>
+        <v>11.96240343476293</v>
       </c>
       <c r="L9">
-        <v>11.14258331049018</v>
+        <v>7.424572745019582</v>
       </c>
       <c r="M9">
-        <v>13.98246156083399</v>
+        <v>10.55840214095678</v>
       </c>
       <c r="N9">
-        <v>18.89881109425016</v>
+        <v>12.01726450483515</v>
       </c>
       <c r="O9">
-        <v>21.21439704215662</v>
+        <v>13.48633638284937</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>11.41285338091045</v>
+        <v>15.67121905810969</v>
       </c>
       <c r="C10">
-        <v>11.00197264171389</v>
+        <v>7.933925656972461</v>
       </c>
       <c r="D10">
-        <v>5.360773205853873</v>
+        <v>6.041312140275834</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.62772410276612</v>
+        <v>17.67256631990425</v>
       </c>
       <c r="G10">
-        <v>27.55404133836499</v>
+        <v>21.18763641959561</v>
       </c>
       <c r="H10">
-        <v>13.98834794199663</v>
+        <v>8.308756536180656</v>
       </c>
       <c r="I10">
-        <v>22.37565870807695</v>
+        <v>13.60765734509115</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.9139089754068</v>
+        <v>12.80279756682224</v>
       </c>
       <c r="L10">
-        <v>11.14366650412829</v>
+        <v>7.643054595970013</v>
       </c>
       <c r="M10">
-        <v>14.07017796229866</v>
+        <v>11.1530160177545</v>
       </c>
       <c r="N10">
-        <v>18.8176506567581</v>
+        <v>11.73871550044343</v>
       </c>
       <c r="O10">
-        <v>21.13195230274174</v>
+        <v>13.53964639673775</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11.61011439117402</v>
+        <v>16.21395881405341</v>
       </c>
       <c r="C11">
-        <v>10.99966691788597</v>
+        <v>7.938184609126078</v>
       </c>
       <c r="D11">
-        <v>5.420446682212037</v>
+        <v>6.190366427522984</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.62683615450598</v>
+        <v>17.92649230726563</v>
       </c>
       <c r="G11">
-        <v>27.54212545672234</v>
+        <v>21.48045737105903</v>
       </c>
       <c r="H11">
-        <v>13.96489726648852</v>
+        <v>8.287738253924601</v>
       </c>
       <c r="I11">
-        <v>22.32846690572872</v>
+        <v>13.55710095997858</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>9.087895482982928</v>
+        <v>13.16722365357874</v>
       </c>
       <c r="L11">
-        <v>11.14592275299982</v>
+        <v>7.744609202322068</v>
       </c>
       <c r="M11">
-        <v>14.11187722638178</v>
+        <v>11.41706776999249</v>
       </c>
       <c r="N11">
-        <v>18.78231829884551</v>
+        <v>11.61434781236222</v>
       </c>
       <c r="O11">
-        <v>21.09847110986169</v>
+        <v>13.57626217783389</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>11.68410845526228</v>
+        <v>16.41501536231885</v>
       </c>
       <c r="C12">
-        <v>10.99886407581584</v>
+        <v>7.939953130533449</v>
       </c>
       <c r="D12">
-        <v>5.442764715882944</v>
+        <v>6.245834609929824</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.62732237775264</v>
+        <v>18.02421219266931</v>
       </c>
       <c r="G12">
-        <v>27.53876789789021</v>
+        <v>21.59425358872132</v>
       </c>
       <c r="H12">
-        <v>13.95629643609023</v>
+        <v>8.280596489078849</v>
       </c>
       <c r="I12">
-        <v>22.31114256588278</v>
+        <v>13.5397053366565</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.152708077337529</v>
+        <v>13.30262983849663</v>
       </c>
       <c r="L12">
-        <v>11.14702942862953</v>
+        <v>7.783353149921307</v>
       </c>
       <c r="M12">
-        <v>14.12791710922651</v>
+        <v>11.51605676571122</v>
       </c>
       <c r="N12">
-        <v>18.7691661215663</v>
+        <v>11.56757553363705</v>
       </c>
       <c r="O12">
-        <v>21.08637169456179</v>
+        <v>13.59198103968373</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>11.66820490400738</v>
+        <v>16.37191234935555</v>
       </c>
       <c r="C13">
-        <v>10.9990338639838</v>
+        <v>7.939565300779859</v>
       </c>
       <c r="D13">
-        <v>5.437970696102636</v>
+        <v>6.233932181476309</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.62718111172275</v>
+        <v>18.00309763360909</v>
       </c>
       <c r="G13">
-        <v>27.53943964053416</v>
+        <v>21.56961629599238</v>
       </c>
       <c r="H13">
-        <v>13.95813635482759</v>
+        <v>8.282097631041161</v>
       </c>
       <c r="I13">
-        <v>22.31484937898361</v>
+        <v>13.5433724690931</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.138797718398314</v>
+        <v>13.27358336271855</v>
       </c>
       <c r="L13">
-        <v>11.14677988801595</v>
+        <v>7.774996540842445</v>
       </c>
       <c r="M13">
-        <v>14.12445169468887</v>
+        <v>11.49478335149741</v>
       </c>
       <c r="N13">
-        <v>18.77198857828464</v>
+        <v>11.57763464447788</v>
       </c>
       <c r="O13">
-        <v>21.08895175128842</v>
+        <v>13.58851210301976</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>11.61621642961155</v>
+        <v>16.23058918284583</v>
       </c>
       <c r="C14">
-        <v>10.99959946173897</v>
+        <v>7.938326977821801</v>
       </c>
       <c r="D14">
-        <v>5.422288449456607</v>
+        <v>6.194949469877444</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.62685968364789</v>
+        <v>17.93450069846326</v>
       </c>
       <c r="G14">
-        <v>27.54182608172902</v>
+        <v>21.48976119154907</v>
       </c>
       <c r="H14">
-        <v>13.96418407214309</v>
+        <v>8.287134095373171</v>
       </c>
       <c r="I14">
-        <v>22.32703067493373</v>
+        <v>13.55563420644846</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>9.093249326363704</v>
+        <v>13.17841569972897</v>
       </c>
       <c r="L14">
-        <v>11.14600875167008</v>
+        <v>7.747791065477148</v>
       </c>
       <c r="M14">
-        <v>14.11319189443213</v>
+        <v>11.42523212328774</v>
       </c>
       <c r="N14">
-        <v>18.78123170871906</v>
+        <v>11.6104934374949</v>
       </c>
       <c r="O14">
-        <v>21.09746407253525</v>
+        <v>13.57751781289982</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>11.58427825150551</v>
+        <v>16.14344395502629</v>
       </c>
       <c r="C15">
-        <v>10.99995504554296</v>
+        <v>7.937588789433879</v>
       </c>
       <c r="D15">
-        <v>5.412645986792483</v>
+        <v>6.170943919379015</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.62676985441563</v>
+        <v>17.89268540687625</v>
       </c>
       <c r="G15">
-        <v>27.54343824806222</v>
+        <v>21.44122634753611</v>
       </c>
       <c r="H15">
-        <v>13.96792485674637</v>
+        <v>8.290326659513662</v>
       </c>
       <c r="I15">
-        <v>22.33456320242037</v>
+        <v>13.56337550372702</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>9.065209028483068</v>
+        <v>13.11978436026451</v>
       </c>
       <c r="L15">
-        <v>11.14556922218484</v>
+        <v>7.731163653222964</v>
       </c>
       <c r="M15">
-        <v>14.10632713004261</v>
+        <v>11.38249748473433</v>
       </c>
       <c r="N15">
-        <v>18.78692298257917</v>
+        <v>11.6306620384574</v>
       </c>
       <c r="O15">
-        <v>21.10275355989312</v>
+        <v>13.57102703720644</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>11.39986706313092</v>
+        <v>15.6351226899555</v>
       </c>
       <c r="C16">
-        <v>11.00213318803152</v>
+        <v>7.933669051950116</v>
       </c>
       <c r="D16">
-        <v>5.356834910562728</v>
+        <v>6.031435507972714</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.62789732138603</v>
+        <v>17.65619286989174</v>
       </c>
       <c r="G16">
-        <v>27.5549816080526</v>
+        <v>21.16890796840468</v>
       </c>
       <c r="H16">
-        <v>13.98991961421199</v>
+        <v>8.310242444720334</v>
       </c>
       <c r="I16">
-        <v>22.37881922423782</v>
+        <v>13.6112008527965</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.902390259306127</v>
+        <v>12.77861958038922</v>
       </c>
       <c r="L16">
-        <v>11.14355443033537</v>
+        <v>7.63645928195083</v>
       </c>
       <c r="M16">
-        <v>14.06748820152447</v>
+        <v>11.1356233064733</v>
       </c>
       <c r="N16">
-        <v>18.81999158355239</v>
+        <v>11.74688921649188</v>
       </c>
       <c r="O16">
-        <v>21.13422139301783</v>
+        <v>13.5375087592053</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.28555605037154</v>
+        <v>15.31528971454112</v>
       </c>
       <c r="C17">
-        <v>11.00359511374657</v>
+        <v>7.931540519626481</v>
       </c>
       <c r="D17">
-        <v>5.322110562718471</v>
+        <v>5.944132659013995</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.63005572861346</v>
+        <v>17.51394431560188</v>
       </c>
       <c r="G17">
-        <v>27.56411874199881</v>
+        <v>21.0070472195225</v>
       </c>
       <c r="H17">
-        <v>14.00391064466341</v>
+        <v>8.323875569496646</v>
       </c>
       <c r="I17">
-        <v>22.40694150707924</v>
+        <v>13.64355335184344</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.800631514196047</v>
+        <v>12.56472863882387</v>
       </c>
       <c r="L17">
-        <v>11.1427692063166</v>
+        <v>7.578898731454495</v>
       </c>
       <c r="M17">
-        <v>14.04411558163724</v>
+        <v>10.98246713420606</v>
       </c>
       <c r="N17">
-        <v>18.84068414649835</v>
+        <v>11.81878163383162</v>
       </c>
       <c r="O17">
-        <v>21.15455683454886</v>
+        <v>13.52016748642552</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.21939652699356</v>
+        <v>15.12838124266339</v>
       </c>
       <c r="C18">
-        <v>11.00448232666789</v>
+        <v>7.930417330564059</v>
       </c>
       <c r="D18">
-        <v>5.301962775399431</v>
+        <v>5.893292722335937</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.6318366732996</v>
+        <v>17.43318119029502</v>
       </c>
       <c r="G18">
-        <v>27.57012918824928</v>
+        <v>20.91586159412529</v>
       </c>
       <c r="H18">
-        <v>14.01214099064235</v>
+        <v>8.33222520547395</v>
       </c>
       <c r="I18">
-        <v>22.42347409964668</v>
+        <v>13.6632389226825</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.741424813427702</v>
+        <v>12.44002276953195</v>
       </c>
       <c r="L18">
-        <v>11.14248364123992</v>
+        <v>7.545996729948562</v>
       </c>
       <c r="M18">
-        <v>14.0308419406717</v>
+        <v>10.89377328969251</v>
       </c>
       <c r="N18">
-        <v>18.85273547955846</v>
+        <v>11.86035391672919</v>
       </c>
       <c r="O18">
-        <v>21.16663190388078</v>
+        <v>13.51135270385726</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.19692773803556</v>
+        <v>15.06458971407682</v>
       </c>
       <c r="C19">
-        <v>11.00479069742082</v>
+        <v>7.930054364729064</v>
       </c>
       <c r="D19">
-        <v>5.295111305539877</v>
+        <v>5.875972355318551</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>23.63253236532818</v>
+        <v>17.4060185608818</v>
       </c>
       <c r="G19">
-        <v>27.5722938448038</v>
+        <v>20.88531625215411</v>
       </c>
       <c r="H19">
-        <v>14.01495909504075</v>
+        <v>8.335138419494555</v>
       </c>
       <c r="I19">
-        <v>22.42913313088276</v>
+        <v>13.67008633136126</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.721263143962693</v>
+        <v>12.3975115736836</v>
       </c>
       <c r="L19">
-        <v>11.14241551506084</v>
+        <v>7.534892680622518</v>
       </c>
       <c r="M19">
-        <v>14.02637712653081</v>
+        <v>10.86364208102866</v>
       </c>
       <c r="N19">
-        <v>18.85684156205523</v>
+        <v>11.87446807423071</v>
       </c>
       <c r="O19">
-        <v>21.17078532986238</v>
+        <v>13.50856498145452</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>11.29776770591173</v>
+        <v>15.34964144370198</v>
       </c>
       <c r="C20">
-        <v>11.00343469551221</v>
+        <v>7.931756635086056</v>
       </c>
       <c r="D20">
-        <v>5.325825244715102</v>
+        <v>5.953491092444215</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.6297701370367</v>
+        <v>17.52897808646001</v>
       </c>
       <c r="G20">
-        <v>27.56306792646977</v>
+        <v>21.02407967600233</v>
       </c>
       <c r="H20">
-        <v>14.00240232971439</v>
+        <v>8.322371434376356</v>
       </c>
       <c r="I20">
-        <v>22.40391085157112</v>
+        <v>13.63999720928697</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.811534312555029</v>
+        <v>12.58767191744439</v>
       </c>
       <c r="L20">
-        <v>11.14283561567335</v>
+        <v>7.58500507816814</v>
       </c>
       <c r="M20">
-        <v>14.04658614127294</v>
+        <v>10.99883380391988</v>
       </c>
       <c r="N20">
-        <v>18.83846591999863</v>
+        <v>11.81110572320584</v>
       </c>
       <c r="O20">
-        <v>21.15235289725275</v>
+        <v>13.52189294325166</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>11.63150635761084</v>
+        <v>16.27222017749942</v>
       </c>
       <c r="C21">
-        <v>10.99943142830746</v>
+        <v>7.938686466314585</v>
       </c>
       <c r="D21">
-        <v>5.426902357550204</v>
+        <v>6.206426238809348</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.62693178828192</v>
+        <v>17.9546071993328</v>
       </c>
       <c r="G21">
-        <v>27.54109378136916</v>
+        <v>21.51313767653605</v>
       </c>
       <c r="H21">
-        <v>13.96240012918649</v>
+        <v>8.285632274514434</v>
       </c>
       <c r="I21">
-        <v>22.32343790893048</v>
+        <v>13.55198440074101</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.106657347932522</v>
+        <v>13.20643930282786</v>
       </c>
       <c r="L21">
-        <v>11.14622841725183</v>
+        <v>7.755774361220865</v>
       </c>
       <c r="M21">
-        <v>14.1164924793126</v>
+        <v>11.4456887381704</v>
       </c>
       <c r="N21">
-        <v>18.77851061244392</v>
+        <v>11.60083336157382</v>
       </c>
       <c r="O21">
-        <v>21.09494807377632</v>
+        <v>13.58069621686876</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>11.8454892963015</v>
+        <v>16.84915744199122</v>
       </c>
       <c r="C22">
-        <v>10.99722451346707</v>
+        <v>7.944123959222996</v>
       </c>
       <c r="D22">
-        <v>5.491331384454536</v>
+        <v>6.366042283044808</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.62986963747202</v>
+        <v>18.24187319280363</v>
       </c>
       <c r="G22">
-        <v>27.53346303316914</v>
+        <v>21.84972412732124</v>
       </c>
       <c r="H22">
-        <v>13.93788500811423</v>
+        <v>8.266403911634773</v>
       </c>
       <c r="I22">
-        <v>22.27402776509649</v>
+        <v>13.50470368012248</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.293273944608551</v>
+        <v>13.59571361575832</v>
       </c>
       <c r="L22">
-        <v>11.1499156130502</v>
+        <v>7.869046629459278</v>
       </c>
       <c r="M22">
-        <v>14.16362886004233</v>
+        <v>11.7318681986626</v>
       </c>
       <c r="N22">
-        <v>18.74065150965567</v>
+        <v>11.46528431523146</v>
       </c>
       <c r="O22">
-        <v>21.06080688801846</v>
+        <v>13.62996306572387</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>11.73168279164441</v>
+        <v>16.5436042677333</v>
       </c>
       <c r="C23">
-        <v>10.99836508103245</v>
+        <v>7.941138323382198</v>
       </c>
       <c r="D23">
-        <v>5.457096881377648</v>
+        <v>6.281378139383702</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.62786375623709</v>
+        <v>18.08773667842873</v>
       </c>
       <c r="G23">
-        <v>27.53691965864957</v>
+        <v>21.66853510807853</v>
       </c>
       <c r="H23">
-        <v>13.95082024898229</v>
+        <v>8.276216099227419</v>
       </c>
       <c r="I23">
-        <v>22.30010754262559</v>
+        <v>13.52896917517891</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.194256511756038</v>
+        <v>13.38934052024155</v>
       </c>
       <c r="L23">
-        <v>11.14781366431538</v>
+        <v>7.808446543395712</v>
       </c>
       <c r="M23">
-        <v>14.13834182297911</v>
+        <v>11.57968776372441</v>
       </c>
       <c r="N23">
-        <v>18.76073667542697</v>
+        <v>11.5374625672967</v>
       </c>
       <c r="O23">
-        <v>21.07871956781268</v>
+        <v>13.60265269934471</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>11.29224818336555</v>
+        <v>15.33412047429878</v>
       </c>
       <c r="C24">
-        <v>11.00350707499694</v>
+        <v>7.931658616239547</v>
       </c>
       <c r="D24">
-        <v>5.324146410239332</v>
+        <v>5.949262162778167</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.6298975706892</v>
+        <v>17.52217814623198</v>
       </c>
       <c r="G24">
-        <v>27.5635406410916</v>
+        <v>21.01637347639382</v>
       </c>
       <c r="H24">
-        <v>14.00308365727859</v>
+        <v>8.323049862627961</v>
       </c>
       <c r="I24">
-        <v>22.40527987487447</v>
+        <v>13.64160156675035</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.80660734836111</v>
+        <v>12.57730467001752</v>
       </c>
       <c r="L24">
-        <v>11.14280507524171</v>
+        <v>7.582243804162248</v>
       </c>
       <c r="M24">
-        <v>14.04546869101535</v>
+        <v>10.99143642738579</v>
       </c>
       <c r="N24">
-        <v>18.83946829761584</v>
+        <v>11.81457525261587</v>
       </c>
       <c r="O24">
-        <v>21.15334810137309</v>
+        <v>13.52110927254686</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>10.80287690250524</v>
+        <v>13.91661925167548</v>
       </c>
       <c r="C25">
-        <v>11.01082760512024</v>
+        <v>7.925293738749439</v>
       </c>
       <c r="D25">
-        <v>5.174084243662575</v>
+        <v>5.56720910822665</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>23.65271780051714</v>
+        <v>16.95258793068952</v>
       </c>
       <c r="G25">
-        <v>27.62110855831821</v>
+        <v>20.38595495855881</v>
       </c>
       <c r="H25">
-        <v>14.06645859317687</v>
+        <v>8.392858773442494</v>
       </c>
       <c r="I25">
-        <v>22.53238900892423</v>
+        <v>13.80393177833632</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.362728240266353</v>
+        <v>11.63727904809227</v>
       </c>
       <c r="L25">
-        <v>11.14375588864181</v>
+        <v>7.346196286357437</v>
       </c>
       <c r="M25">
-        <v>13.95181015152189</v>
+        <v>10.33428222972599</v>
       </c>
       <c r="N25">
-        <v>18.93011352681744</v>
+        <v>12.12201511274147</v>
       </c>
       <c r="O25">
-        <v>21.24832090184001</v>
+        <v>13.47715621240447</v>
       </c>
     </row>
   </sheetData>
